--- a/Daily Task Sheet.xlsx
+++ b/Daily Task Sheet.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="17">
   <si>
     <t>Daily Task Sheet</t>
   </si>
@@ -81,6 +81,14 @@
 https://www.netafim.com/en/digital-farming/netbeat/Monitor/
 Started preparing a comparison report between these websites.
 Found that a vast work is being done in an agriculture technology.</t>
+  </si>
+  <si>
+    <t>Created a comparison sheet https://github.com/frenziopen/FrenziTech/blob/main/Documentation/Comparison%20Sheet.xlsx
+Created comparison on NetaFim and wildeye devices and still working further.
+Purchased components and the bill of material is attached https://github.com/frenziopen/FrenziTech/blob/main/Hardware/Components/WhatsApp%20Image%202023-03-09%20at%201.38.14%20PM.jpeg?raw=true</t>
+  </si>
+  <si>
+    <t>Prepared the hardware of a first kit.</t>
   </si>
 </sst>
 </file>
@@ -654,14 +662,16 @@
       </c>
       <c r="D10" s="8"/>
     </row>
-    <row r="11" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" ht="114.75" x14ac:dyDescent="0.2">
       <c r="A11" s="15">
         <v>44993</v>
       </c>
       <c r="B11" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="7"/>
+      <c r="C11" s="6" t="s">
+        <v>15</v>
+      </c>
       <c r="D11" s="8"/>
     </row>
     <row r="12" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
@@ -671,7 +681,9 @@
       <c r="B12" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="7"/>
+      <c r="C12" s="7" t="s">
+        <v>16</v>
+      </c>
       <c r="D12" s="8"/>
     </row>
     <row r="13" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">

--- a/Daily Task Sheet.xlsx
+++ b/Daily Task Sheet.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Syed Mohiuddin Zia\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Syed Mohiuddin Zia\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="19">
   <si>
     <t>Daily Task Sheet</t>
   </si>
@@ -89,6 +89,17 @@
   </si>
   <si>
     <t>Prepared the hardware of a first kit.</t>
+  </si>
+  <si>
+    <t>Completed the soldering of all three boards. 
+Tested a simple sender receiver on them. 
+Studied some more products and included them in comparison sheet.
+https://github.com/frenziopen/FrenziTech/blob/main/Documentation/Comparison%20Sheet.xlsx
+Attached images of the products in comparison sheet.</t>
+  </si>
+  <si>
+    <t>Studied ESP32 pinout in detail from https://docs.espressif.com/projects/esp-idf/en/latest/esp32/hw-reference/esp32/get-started-devkitc.html#get-started-esp32-devkitc-board-front 
+and created pins utilization diagram uploaded FrenziTech/README.md at main · frenziopen/FrenziTech (github.com).</t>
   </si>
 </sst>
 </file>
@@ -275,7 +286,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
@@ -320,6 +331,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -548,8 +562,8 @@
   </sheetPr>
   <dimension ref="A1:D35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -686,14 +700,16 @@
       </c>
       <c r="D12" s="8"/>
     </row>
-    <row r="13" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" ht="114.75" x14ac:dyDescent="0.2">
       <c r="A13" s="15">
         <v>44995</v>
       </c>
       <c r="B13" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="9"/>
+      <c r="C13" s="23" t="s">
+        <v>17</v>
+      </c>
       <c r="D13" s="10"/>
     </row>
     <row r="14" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
@@ -716,14 +732,16 @@
       <c r="C15" s="11"/>
       <c r="D15" s="12"/>
     </row>
-    <row r="16" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A16" s="15">
         <v>44998</v>
       </c>
       <c r="B16" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="C16" s="7"/>
+      <c r="C16" s="6" t="s">
+        <v>18</v>
+      </c>
       <c r="D16" s="8"/>
     </row>
     <row r="17" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">

--- a/Daily Task Sheet.xlsx
+++ b/Daily Task Sheet.xlsx
@@ -5,21 +5,21 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Syed Mohiuddin Zia\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9330"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11544" windowHeight="8496"/>
   </bookViews>
   <sheets>
     <sheet name="Mohiuddin" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="24">
   <si>
     <t>Daily Task Sheet</t>
   </si>
@@ -100,6 +100,36 @@
   <si>
     <t>Studied ESP32 pinout in detail from https://docs.espressif.com/projects/esp-idf/en/latest/esp32/hw-reference/esp32/get-started-devkitc.html#get-started-esp32-devkitc-board-front 
 and created pins utilization diagram uploaded FrenziTech/README.md at main · frenziopen/FrenziTech (github.com).</t>
+  </si>
+  <si>
+    <t>First Day of Joining.
+- Papers Reading
+- Working of basic idea of our design
+- Searching for available equipments</t>
+  </si>
+  <si>
+    <t>First Conlusion Compiling
+- Basic Design Proposed
+- Formulas and calculations of Wind, Blades, Shaft, Gears, Dynamo and Battery
+- Major Steps for the fabrication</t>
+  </si>
+  <si>
+    <t>Discussion with related persons in automitive department and electrical machines lab regarding dynamos availiblity, performance and market.
+figured out the the cons in using the car alternators
+Working on alternate solutions.
+A visit to nearest auto shop for some information regarding dynamos.</t>
+  </si>
+  <si>
+    <t>created a methadology report and explained in it the pins utilization.
+Also created a block diagram of our IOT device system and explained in the methodology report.
+Power system of our project is also explained while creating a block diagram.</t>
+  </si>
+  <si>
+    <t>Working on adding Belt and Pulley system to the design
+Analysing Data sheets of different manufacturers of alternators.
+Listing out the torque and speed requirments of all possibile generators
+Calculating parameters to proof the fesibility of Hub Motor.
+Compile a document of conlusion.</t>
   </si>
 </sst>
 </file>
@@ -286,7 +316,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
@@ -322,6 +352,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -332,7 +365,10 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -562,45 +598,45 @@
   </sheetPr>
   <dimension ref="A1:D35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="76.140625" customWidth="1"/>
-    <col min="4" max="4" width="81.28515625" customWidth="1"/>
+    <col min="3" max="3" width="76.109375" customWidth="1"/>
+    <col min="4" max="4" width="81.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="30" x14ac:dyDescent="0.4">
-      <c r="A1" s="21" t="s">
+    <row r="1" spans="1:4" ht="30" x14ac:dyDescent="0.5">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-    </row>
-    <row r="2" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="19" t="s">
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+    </row>
+    <row r="2" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="C2" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="22" t="s">
+      <c r="D2" s="23" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="20"/>
-      <c r="B3" s="20"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-    </row>
-    <row r="4" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="21"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+    </row>
+    <row r="4" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>44986</v>
       </c>
@@ -610,7 +646,7 @@
       <c r="C4" s="3"/>
       <c r="D4" s="4"/>
     </row>
-    <row r="5" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>44987</v>
       </c>
@@ -620,7 +656,7 @@
       <c r="C5" s="7"/>
       <c r="D5" s="8"/>
     </row>
-    <row r="6" spans="1:4" ht="114.75" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" ht="118.8" x14ac:dyDescent="0.25">
       <c r="A6" s="15">
         <v>44988</v>
       </c>
@@ -632,7 +668,7 @@
       </c>
       <c r="D6" s="8"/>
     </row>
-    <row r="7" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>44989</v>
       </c>
@@ -642,7 +678,7 @@
       <c r="C7" s="7"/>
       <c r="D7" s="8"/>
     </row>
-    <row r="8" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>44990</v>
       </c>
@@ -652,7 +688,7 @@
       <c r="C8" s="7"/>
       <c r="D8" s="8"/>
     </row>
-    <row r="9" spans="1:4" ht="102" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" ht="105.6" x14ac:dyDescent="0.25">
       <c r="A9" s="15">
         <v>44991</v>
       </c>
@@ -664,7 +700,7 @@
       </c>
       <c r="D9" s="8"/>
     </row>
-    <row r="10" spans="1:4" ht="114.75" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" ht="118.8" x14ac:dyDescent="0.25">
       <c r="A10" s="15">
         <v>44992</v>
       </c>
@@ -676,7 +712,7 @@
       </c>
       <c r="D10" s="8"/>
     </row>
-    <row r="11" spans="1:4" ht="114.75" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" ht="118.8" x14ac:dyDescent="0.25">
       <c r="A11" s="15">
         <v>44993</v>
       </c>
@@ -688,7 +724,7 @@
       </c>
       <c r="D11" s="8"/>
     </row>
-    <row r="12" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" ht="66" x14ac:dyDescent="0.25">
       <c r="A12" s="15">
         <v>44994</v>
       </c>
@@ -698,21 +734,25 @@
       <c r="C12" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="8"/>
-    </row>
-    <row r="13" spans="1:4" ht="114.75" x14ac:dyDescent="0.2">
+      <c r="D12" s="24" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="118.8" x14ac:dyDescent="0.25">
       <c r="A13" s="15">
         <v>44995</v>
       </c>
       <c r="B13" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="23" t="s">
+      <c r="C13" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="D13" s="10"/>
-    </row>
-    <row r="14" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="D13" s="25" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A14" s="15">
         <v>44996</v>
       </c>
@@ -722,7 +762,7 @@
       <c r="C14" s="11"/>
       <c r="D14" s="12"/>
     </row>
-    <row r="15" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A15" s="15">
         <v>44997</v>
       </c>
@@ -732,7 +772,7 @@
       <c r="C15" s="11"/>
       <c r="D15" s="12"/>
     </row>
-    <row r="16" spans="1:4" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" ht="105.6" x14ac:dyDescent="0.25">
       <c r="A16" s="15">
         <v>44998</v>
       </c>
@@ -742,19 +782,25 @@
       <c r="C16" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D16" s="8"/>
-    </row>
-    <row r="17" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="D16" s="24" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="118.8" x14ac:dyDescent="0.25">
       <c r="A17" s="15">
         <v>44999</v>
       </c>
       <c r="B17" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="7"/>
-      <c r="D17" s="8"/>
-    </row>
-    <row r="18" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="C17" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D17" s="24" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A18" s="15">
         <v>45000</v>
       </c>
@@ -764,7 +810,7 @@
       <c r="C18" s="9"/>
       <c r="D18" s="10"/>
     </row>
-    <row r="19" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A19" s="15">
         <v>45001</v>
       </c>
@@ -774,7 +820,7 @@
       <c r="C19" s="9"/>
       <c r="D19" s="10"/>
     </row>
-    <row r="20" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A20" s="15">
         <v>45002</v>
       </c>
@@ -784,7 +830,7 @@
       <c r="C20" s="9"/>
       <c r="D20" s="10"/>
     </row>
-    <row r="21" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A21" s="15">
         <v>45003</v>
       </c>
@@ -794,7 +840,7 @@
       <c r="C21" s="11"/>
       <c r="D21" s="12"/>
     </row>
-    <row r="22" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A22" s="15">
         <v>45004</v>
       </c>
@@ -804,7 +850,7 @@
       <c r="C22" s="11"/>
       <c r="D22" s="12"/>
     </row>
-    <row r="23" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A23" s="15">
         <v>45005</v>
       </c>
@@ -814,7 +860,7 @@
       <c r="C23" s="9"/>
       <c r="D23" s="10"/>
     </row>
-    <row r="24" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A24" s="15">
         <v>45006</v>
       </c>
@@ -824,7 +870,7 @@
       <c r="C24" s="9"/>
       <c r="D24" s="10"/>
     </row>
-    <row r="25" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A25" s="15">
         <v>45007</v>
       </c>
@@ -834,7 +880,7 @@
       <c r="C25" s="7"/>
       <c r="D25" s="8"/>
     </row>
-    <row r="26" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A26" s="15">
         <v>45008</v>
       </c>
@@ -844,7 +890,7 @@
       <c r="C26" s="7"/>
       <c r="D26" s="8"/>
     </row>
-    <row r="27" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A27" s="15">
         <v>45009</v>
       </c>
@@ -854,7 +900,7 @@
       <c r="C27" s="9"/>
       <c r="D27" s="10"/>
     </row>
-    <row r="28" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A28" s="15">
         <v>45010</v>
       </c>
@@ -864,7 +910,7 @@
       <c r="C28" s="11"/>
       <c r="D28" s="12"/>
     </row>
-    <row r="29" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A29" s="15">
         <v>45011</v>
       </c>
@@ -874,7 +920,7 @@
       <c r="C29" s="11"/>
       <c r="D29" s="12"/>
     </row>
-    <row r="30" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A30" s="15">
         <v>45012</v>
       </c>
@@ -884,7 +930,7 @@
       <c r="C30" s="9"/>
       <c r="D30" s="10"/>
     </row>
-    <row r="31" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A31" s="15">
         <v>45013</v>
       </c>
@@ -894,7 +940,7 @@
       <c r="C31" s="9"/>
       <c r="D31" s="10"/>
     </row>
-    <row r="32" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A32" s="15">
         <v>45014</v>
       </c>
@@ -904,7 +950,7 @@
       <c r="C32" s="9"/>
       <c r="D32" s="10"/>
     </row>
-    <row r="33" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A33" s="15">
         <v>45015</v>
       </c>
@@ -914,7 +960,7 @@
       <c r="C33" s="9"/>
       <c r="D33" s="10"/>
     </row>
-    <row r="34" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A34" s="15">
         <v>45016</v>
       </c>
@@ -924,7 +970,7 @@
       <c r="C34" s="7"/>
       <c r="D34" s="8"/>
     </row>
-    <row r="35" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A35" s="17">
         <v>45017</v>
       </c>

--- a/Daily Task Sheet.xlsx
+++ b/Daily Task Sheet.xlsx
@@ -142,7 +142,8 @@
   <si>
     <t>Read about UARTs in ESP32, and did amendments in pin utilization diagram.
 Decided to create only x2 Digital INs, x6 Analog Ins and x6 Digital OUTs.
-UART1 pins are now changed to G04/G015.</t>
+UART1 pins are now changed to G04/G015.
+Still work is incomplete to change to content of methodology report.</t>
   </si>
 </sst>
 </file>
@@ -612,7 +613,7 @@
   <dimension ref="A1:D35"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/Daily Task Sheet.xlsx
+++ b/Daily Task Sheet.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Syed Mohiuddin Zia\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Syed Mohiuddin Zia\Desktop\FrenziTech\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="27">
   <si>
     <t>Daily Task Sheet</t>
   </si>
@@ -144,6 +144,12 @@
 Decided to create only x2 Digital INs, x6 Analog Ins and x6 Digital OUTs.
 UART1 pins are now changed to G04/G015.
 Still work is incomplete to change to content of methodology report.</t>
+  </si>
+  <si>
+    <t>A wiring diagram with some modules attached is created on fritzing, still incomplete as more modules and wiring needs to be added.FrenziTech/Documentation/V3 - Documentation at main · frenziopen/FrenziTech (github.com)
+A new list of modules are attached with their images, product purchase link and datasheets.FrenziTech/Documentation/V3 - Documentation/Modules at main · frenziopen/FrenziTech (github.com)
+A microsoft document is modified https://github.com/frenziopen/FrenziTech/blob/main/Hardware/Methodology/FrenziTechMethodology.docx and more will be added further on
+A revised link of block diagrams is https://github.com/frenziopen/FrenziTech/tree/main/Hardware/Methodology</t>
   </si>
 </sst>
 </file>
@@ -153,7 +159,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="mm\-dd\-yyyy"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -188,6 +194,13 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -330,7 +343,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
@@ -384,6 +397,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -613,7 +629,7 @@
   <dimension ref="A1:D35"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -828,14 +844,16 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" ht="178.5" x14ac:dyDescent="0.2">
       <c r="A19" s="15">
         <v>45001</v>
       </c>
       <c r="B19" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="C19" s="9"/>
+      <c r="C19" s="26" t="s">
+        <v>26</v>
+      </c>
       <c r="D19" s="10"/>
     </row>
     <row r="20" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
@@ -1007,5 +1025,6 @@
     <mergeCell ref="D2:D3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Daily Task Sheet.xlsx
+++ b/Daily Task Sheet.xlsx
@@ -1,25 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Syed Mohiuddin Zia\Desktop\FrenziTech\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jawwad\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C642A5DE-BAB2-4DEF-B091-6AC371A4C930}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9195"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Mohiuddin" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="28">
   <si>
     <t>Daily Task Sheet</t>
   </si>
@@ -151,11 +152,15 @@
 A microsoft document is modified https://github.com/frenziopen/FrenziTech/blob/main/Hardware/Methodology/FrenziTechMethodology.docx and more will be added further on
 A revised link of block diagrams is https://github.com/frenziopen/FrenziTech/tree/main/Hardware/Methodology</t>
   </si>
+  <si>
+    <t>..Desiging of Hybrid Wind Machine with pulley system to consider VAWT for low wind situations.
+..HAWT Simulation on ASHES at 7 mph wind speed to get the torque and power output.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="mm\-dd\-yyyy"/>
   </numFmts>
@@ -343,63 +348,62 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="26">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -622,23 +626,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:D35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="76.140625" customWidth="1"/>
-    <col min="4" max="4" width="81.28515625" customWidth="1"/>
+    <col min="3" max="3" width="76.109375" customWidth="1"/>
+    <col min="4" max="4" width="81.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="30" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" ht="30" x14ac:dyDescent="0.5">
       <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
@@ -646,7 +650,7 @@
       <c r="C1" s="24"/>
       <c r="D1" s="24"/>
     </row>
-    <row r="2" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="22" t="s">
         <v>1</v>
       </c>
@@ -660,13 +664,13 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="23"/>
       <c r="B3" s="23"/>
       <c r="C3" s="25"/>
       <c r="D3" s="25"/>
     </row>
-    <row r="4" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>44986</v>
       </c>
@@ -676,7 +680,7 @@
       <c r="C4" s="3"/>
       <c r="D4" s="4"/>
     </row>
-    <row r="5" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>44987</v>
       </c>
@@ -686,11 +690,11 @@
       <c r="C5" s="7"/>
       <c r="D5" s="8"/>
     </row>
-    <row r="6" spans="1:4" ht="114.75" x14ac:dyDescent="0.2">
-      <c r="A6" s="15">
+    <row r="6" spans="1:4" ht="118.8" x14ac:dyDescent="0.25">
+      <c r="A6" s="14">
         <v>44988</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="15" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="6" t="s">
@@ -698,7 +702,7 @@
       </c>
       <c r="D6" s="8"/>
     </row>
-    <row r="7" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>44989</v>
       </c>
@@ -708,7 +712,7 @@
       <c r="C7" s="7"/>
       <c r="D7" s="8"/>
     </row>
-    <row r="8" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>44990</v>
       </c>
@@ -718,11 +722,11 @@
       <c r="C8" s="7"/>
       <c r="D8" s="8"/>
     </row>
-    <row r="9" spans="1:4" ht="102" x14ac:dyDescent="0.2">
-      <c r="A9" s="15">
+    <row r="9" spans="1:4" ht="105.6" x14ac:dyDescent="0.25">
+      <c r="A9" s="14">
         <v>44991</v>
       </c>
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C9" s="6" t="s">
@@ -730,11 +734,11 @@
       </c>
       <c r="D9" s="8"/>
     </row>
-    <row r="10" spans="1:4" ht="114.75" x14ac:dyDescent="0.2">
-      <c r="A10" s="15">
+    <row r="10" spans="1:4" ht="118.8" x14ac:dyDescent="0.25">
+      <c r="A10" s="14">
         <v>44992</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="15" t="s">
         <v>9</v>
       </c>
       <c r="C10" s="6" t="s">
@@ -742,11 +746,11 @@
       </c>
       <c r="D10" s="8"/>
     </row>
-    <row r="11" spans="1:4" ht="114.75" x14ac:dyDescent="0.2">
-      <c r="A11" s="15">
+    <row r="11" spans="1:4" ht="118.8" x14ac:dyDescent="0.25">
+      <c r="A11" s="14">
         <v>44993</v>
       </c>
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="15" t="s">
         <v>3</v>
       </c>
       <c r="C11" s="6" t="s">
@@ -754,267 +758,261 @@
       </c>
       <c r="D11" s="8"/>
     </row>
-    <row r="12" spans="1:4" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A12" s="15">
+    <row r="12" spans="1:4" ht="66" x14ac:dyDescent="0.25">
+      <c r="A12" s="14">
         <v>44994</v>
       </c>
-      <c r="B12" s="16" t="s">
+      <c r="B12" s="15" t="s">
         <v>4</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="20" t="s">
+      <c r="D12" s="19" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="114.75" x14ac:dyDescent="0.2">
-      <c r="A13" s="15">
+    <row r="13" spans="1:4" ht="118.8" x14ac:dyDescent="0.25">
+      <c r="A13" s="14">
         <v>44995</v>
       </c>
-      <c r="B13" s="16" t="s">
+      <c r="B13" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="19" t="s">
+      <c r="C13" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="D13" s="21" t="s">
+      <c r="D13" s="20" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A14" s="15">
+    <row r="14" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A14" s="14">
         <v>44996</v>
       </c>
-      <c r="B14" s="16" t="s">
+      <c r="B14" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="11"/>
-      <c r="D14" s="12"/>
-    </row>
-    <row r="15" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A15" s="15">
+      <c r="C14" s="10"/>
+      <c r="D14" s="11"/>
+    </row>
+    <row r="15" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A15" s="14">
         <v>44997</v>
       </c>
-      <c r="B15" s="16" t="s">
+      <c r="B15" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="11"/>
-      <c r="D15" s="12"/>
-    </row>
-    <row r="16" spans="1:4" ht="102" x14ac:dyDescent="0.2">
-      <c r="A16" s="15">
+      <c r="C15" s="10"/>
+      <c r="D15" s="11"/>
+    </row>
+    <row r="16" spans="1:4" ht="105.6" x14ac:dyDescent="0.25">
+      <c r="A16" s="14">
         <v>44998</v>
       </c>
-      <c r="B16" s="16" t="s">
+      <c r="B16" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C16" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D16" s="20" t="s">
+      <c r="D16" s="19" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="114.75" x14ac:dyDescent="0.2">
-      <c r="A17" s="15">
+    <row r="17" spans="1:4" ht="118.8" x14ac:dyDescent="0.25">
+      <c r="A17" s="14">
         <v>44999</v>
       </c>
-      <c r="B17" s="16" t="s">
+      <c r="B17" s="15" t="s">
         <v>9</v>
       </c>
       <c r="C17" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D17" s="20" t="s">
+      <c r="D17" s="19" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="102" x14ac:dyDescent="0.2">
-      <c r="A18" s="15">
+    <row r="18" spans="1:4" ht="105.6" x14ac:dyDescent="0.25">
+      <c r="A18" s="14">
         <v>45000</v>
       </c>
-      <c r="B18" s="16" t="s">
+      <c r="B18" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C18" s="19" t="s">
+      <c r="C18" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="D18" s="21" t="s">
+      <c r="D18" s="20" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="178.5" x14ac:dyDescent="0.2">
-      <c r="A19" s="15">
+    <row r="19" spans="1:4" ht="184.8" x14ac:dyDescent="0.25">
+      <c r="A19" s="14">
         <v>45001</v>
       </c>
-      <c r="B19" s="16" t="s">
+      <c r="B19" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="C19" s="26" t="s">
+      <c r="C19" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="D19" s="10"/>
-    </row>
-    <row r="20" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A20" s="15">
+      <c r="D19" s="9"/>
+    </row>
+    <row r="20" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A20" s="14">
         <v>45002</v>
       </c>
-      <c r="B20" s="16" t="s">
+      <c r="B20" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="C20" s="9"/>
-      <c r="D20" s="10"/>
-    </row>
-    <row r="21" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A21" s="15">
+      <c r="D20" s="9"/>
+    </row>
+    <row r="21" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A21" s="14">
         <v>45003</v>
       </c>
-      <c r="B21" s="16" t="s">
+      <c r="B21" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="C21" s="11"/>
-      <c r="D21" s="12"/>
-    </row>
-    <row r="22" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A22" s="15">
+      <c r="C21" s="10"/>
+      <c r="D21" s="11"/>
+    </row>
+    <row r="22" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A22" s="14">
         <v>45004</v>
       </c>
-      <c r="B22" s="16" t="s">
+      <c r="B22" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C22" s="11"/>
-      <c r="D22" s="12"/>
-    </row>
-    <row r="23" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A23" s="15">
+      <c r="C22" s="10"/>
+      <c r="D22" s="11"/>
+    </row>
+    <row r="23" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A23" s="14">
         <v>45005</v>
       </c>
-      <c r="B23" s="16" t="s">
+      <c r="B23" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="C23" s="9"/>
-      <c r="D23" s="10"/>
-    </row>
-    <row r="24" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A24" s="15">
+      <c r="D23" s="20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A24" s="14">
         <v>45006</v>
       </c>
-      <c r="B24" s="16" t="s">
+      <c r="B24" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C24" s="9"/>
-      <c r="D24" s="10"/>
-    </row>
-    <row r="25" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A25" s="15">
+      <c r="D24" s="9"/>
+    </row>
+    <row r="25" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A25" s="14">
         <v>45007</v>
       </c>
-      <c r="B25" s="16" t="s">
+      <c r="B25" s="15" t="s">
         <v>3</v>
       </c>
       <c r="C25" s="7"/>
       <c r="D25" s="8"/>
     </row>
-    <row r="26" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A26" s="15">
+    <row r="26" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A26" s="14">
         <v>45008</v>
       </c>
-      <c r="B26" s="16" t="s">
+      <c r="B26" s="15" t="s">
         <v>4</v>
       </c>
       <c r="C26" s="7"/>
       <c r="D26" s="8"/>
     </row>
-    <row r="27" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A27" s="15">
+    <row r="27" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A27" s="14">
         <v>45009</v>
       </c>
-      <c r="B27" s="16" t="s">
+      <c r="B27" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="C27" s="9"/>
-      <c r="D27" s="10"/>
-    </row>
-    <row r="28" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A28" s="15">
+      <c r="D27" s="9"/>
+    </row>
+    <row r="28" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A28" s="14">
         <v>45010</v>
       </c>
-      <c r="B28" s="16" t="s">
+      <c r="B28" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="C28" s="11"/>
-      <c r="D28" s="12"/>
-    </row>
-    <row r="29" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A29" s="15">
+      <c r="C28" s="10"/>
+      <c r="D28" s="11"/>
+    </row>
+    <row r="29" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A29" s="14">
         <v>45011</v>
       </c>
-      <c r="B29" s="16" t="s">
+      <c r="B29" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C29" s="11"/>
-      <c r="D29" s="12"/>
-    </row>
-    <row r="30" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A30" s="15">
+      <c r="C29" s="10"/>
+      <c r="D29" s="11"/>
+    </row>
+    <row r="30" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A30" s="14">
         <v>45012</v>
       </c>
-      <c r="B30" s="16" t="s">
+      <c r="B30" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="C30" s="9"/>
-      <c r="D30" s="10"/>
-    </row>
-    <row r="31" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A31" s="15">
+      <c r="D30" s="9"/>
+    </row>
+    <row r="31" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A31" s="14">
         <v>45013</v>
       </c>
-      <c r="B31" s="16" t="s">
+      <c r="B31" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C31" s="9"/>
-      <c r="D31" s="10"/>
-    </row>
-    <row r="32" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A32" s="15">
+      <c r="D31" s="9"/>
+    </row>
+    <row r="32" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A32" s="14">
         <v>45014</v>
       </c>
-      <c r="B32" s="16" t="s">
+      <c r="B32" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C32" s="9"/>
-      <c r="D32" s="10"/>
-    </row>
-    <row r="33" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A33" s="15">
+      <c r="D32" s="9"/>
+    </row>
+    <row r="33" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A33" s="14">
         <v>45015</v>
       </c>
-      <c r="B33" s="16" t="s">
+      <c r="B33" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="C33" s="9"/>
-      <c r="D33" s="10"/>
-    </row>
-    <row r="34" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A34" s="15">
+      <c r="D33" s="9"/>
+    </row>
+    <row r="34" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A34" s="14">
         <v>45016</v>
       </c>
-      <c r="B34" s="16" t="s">
+      <c r="B34" s="15" t="s">
         <v>5</v>
       </c>
       <c r="C34" s="7"/>
       <c r="D34" s="8"/>
     </row>
-    <row r="35" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A35" s="17">
+    <row r="35" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A35" s="16">
         <v>45017</v>
       </c>
-      <c r="B35" s="18" t="s">
+      <c r="B35" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="C35" s="13"/>
-      <c r="D35" s="14"/>
+      <c r="C35" s="12"/>
+      <c r="D35" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/Daily Task Sheet.xlsx
+++ b/Daily Task Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jawwad\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C642A5DE-BAB2-4DEF-B091-6AC371A4C930}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE826C32-6CBA-4BC2-A0AB-1424DC20F7E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="29">
   <si>
     <t>Daily Task Sheet</t>
   </si>
@@ -155,6 +155,13 @@
   <si>
     <t>..Desiging of Hybrid Wind Machine with pulley system to consider VAWT for low wind situations.
 ..HAWT Simulation on ASHES at 7 mph wind speed to get the torque and power output.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+3D Modelling of VAWT for visualisation of our Hybrid Wind Machine Idea.
+Wind Record Excel Sheet Compiling.
+Calculations for the final equation of our hybrid model (in process).
+</t>
   </si>
 </sst>
 </file>
@@ -348,7 +355,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
@@ -404,6 +411,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -633,7 +643,7 @@
   <dimension ref="A1:D35"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -900,14 +910,16 @@
         <v>27</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" ht="66" x14ac:dyDescent="0.25">
       <c r="A24" s="14">
         <v>45006</v>
       </c>
       <c r="B24" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="D24" s="9"/>
+      <c r="D24" s="26" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="25" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A25" s="14">

--- a/Daily Task Sheet.xlsx
+++ b/Daily Task Sheet.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jawwad\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{918CE65F-B04A-40E7-A7A4-6CE35B274991}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
   </bookViews>
   <sheets>
     <sheet name="Mohiuddin" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="37">
   <si>
     <t>Daily Task Sheet</t>
   </si>
@@ -198,11 +197,14 @@
     <t>Ansys Fluent Modelling and Simulation (interrupted by license failure), So after that SolidWorks Started for VAWT Modelling (basics through tutorials)
 H Darrieus Aerodynamics Calculations</t>
   </si>
+  <si>
+    <t xml:space="preserve">SolidWorks Modelling </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="mm\-dd\-yyyy"/>
   </numFmts>
@@ -677,14 +679,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:D35"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1043,7 +1045,9 @@
       <c r="B31" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="D31" s="9"/>
+      <c r="D31" s="9" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="32" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A32" s="14">
